--- a/APM files/123353674/123353674 EXPORT Compensation Cloud Export.xlsx
+++ b/APM files/123353674/123353674 EXPORT Compensation Cloud Export.xlsx
@@ -1,37 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\123353674\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A4214-BE2F-40DE-BC2E-704B5401147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="10800" yWindow="3570" windowWidth="22770" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Property Name</t>
+  </si>
+  <si>
+    <t>Exclude Past Date Exception</t>
+  </si>
+  <si>
+    <t>Exclude Inactive Rate Plan</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>34769247</t>
+  </si>
+  <si>
+    <t>34600528</t>
+  </si>
+  <si>
+    <t>34769098</t>
+  </si>
+  <si>
+    <t>34599918</t>
+  </si>
+  <si>
+    <t>34599432</t>
+  </si>
+  <si>
+    <t>34599700</t>
+  </si>
+  <si>
+    <t>34600395</t>
+  </si>
+  <si>
+    <t>38192576</t>
+  </si>
+  <si>
+    <t>38549008</t>
+  </si>
+  <si>
+    <t>37662651</t>
+  </si>
+  <si>
+    <t>36801302</t>
+  </si>
+  <si>
+    <t>38192680</t>
+  </si>
+  <si>
+    <t>41980906</t>
+  </si>
+  <si>
+    <t>41981469</t>
+  </si>
+  <si>
+    <t>41981576</t>
+  </si>
+  <si>
+    <t>94687023</t>
+  </si>
+  <si>
+    <t>96109989</t>
+  </si>
+  <si>
+    <t>96147833</t>
+  </si>
+  <si>
+    <t>96149758</t>
+  </si>
+  <si>
+    <t>96149938</t>
+  </si>
+  <si>
+    <t>96151741</t>
+  </si>
+  <si>
+    <t>96152571</t>
+  </si>
+  <si>
+    <t>96173683</t>
+  </si>
+  <si>
+    <t>96177287</t>
+  </si>
+  <si>
+    <t>96202870</t>
+  </si>
+  <si>
+    <t>96216044</t>
+  </si>
+  <si>
+    <t>96218171</t>
+  </si>
+  <si>
+    <t>96219711</t>
+  </si>
+  <si>
+    <t>96224309</t>
+  </si>
+  <si>
+    <t>96265093</t>
+  </si>
+  <si>
+    <t>96265896</t>
+  </si>
+  <si>
+    <t>96268023</t>
+  </si>
+  <si>
+    <t>96268876</t>
+  </si>
+  <si>
+    <t>96270281</t>
+  </si>
+  <si>
+    <t>96290487</t>
+  </si>
+  <si>
+    <t>96291510</t>
+  </si>
+  <si>
+    <t>96293435</t>
+  </si>
+  <si>
+    <t>96293765</t>
+  </si>
+  <si>
+    <t>96296614</t>
+  </si>
+  <si>
+    <t>96297774</t>
+  </si>
+  <si>
+    <t>96298663</t>
+  </si>
+  <si>
+    <t>96302040</t>
+  </si>
+  <si>
+    <t>96305746</t>
+  </si>
+  <si>
+    <t>96307095</t>
+  </si>
+  <si>
+    <t>96308573</t>
+  </si>
+  <si>
+    <t>97024045</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +210,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,55 +534,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Property Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Exclude Past Date Exception</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Exclude Inactive Rate Plan</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>123</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
